--- a/ACC_Project/output_spk.xlsx
+++ b/ACC_Project/output_spk.xlsx
@@ -22,12 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="12">
   <si>
     <t>Site/Freq</t>
-  </si>
-  <si>
-    <t>16.5</t>
   </si>
   <si>
     <t>20</t>
@@ -418,13 +415,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,1443 +458,1335 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.215</v>
+        <v>2.24446411181617</v>
       </c>
       <c r="C2">
-        <v>2.22419099</v>
+        <v>2.149330838385723</v>
       </c>
       <c r="D2">
-        <v>2.113231244</v>
+        <v>2.079</v>
       </c>
       <c r="E2">
-        <v>2.093664288</v>
+        <v>2.118729394016765</v>
       </c>
       <c r="F2">
-        <v>2.078402184</v>
+        <v>2.081542457446933</v>
       </c>
       <c r="G2">
-        <v>2.041862971</v>
+        <v>1.452218942875636</v>
       </c>
       <c r="H2">
-        <v>1.432604814</v>
+        <v>1.292939308908787</v>
       </c>
       <c r="I2">
-        <v>1.278618672</v>
+        <v>1.119227686138544</v>
       </c>
       <c r="J2">
-        <v>1.106788857</v>
+        <v>4.731012383833628</v>
       </c>
       <c r="K2">
-        <v>4.575214045</v>
+        <v>21.31436951718841</v>
       </c>
       <c r="L2">
-        <v>20.966419</v>
-      </c>
-      <c r="M2">
-        <v>25.12728548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>25.8670126677089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.121</v>
+        <v>2.143001181036961</v>
       </c>
       <c r="C3">
-        <v>2.138902979</v>
+        <v>2.052870407947601</v>
       </c>
       <c r="D3">
-        <v>2.027063126</v>
+        <v>2.064</v>
       </c>
       <c r="E3">
-        <v>2.003468768</v>
+        <v>2.027410210528378</v>
       </c>
       <c r="F3">
-        <v>1.994416896</v>
+        <v>2.001628008652021</v>
       </c>
       <c r="G3">
-        <v>1.967679517</v>
+        <v>1.417627754957852</v>
       </c>
       <c r="H3">
-        <v>1.401423404</v>
+        <v>1.268900429777511</v>
       </c>
       <c r="I3">
-        <v>1.258411563</v>
+        <v>1.09667925151711</v>
       </c>
       <c r="J3">
-        <v>1.089895515</v>
+        <v>4.444499967644039</v>
       </c>
       <c r="K3">
-        <v>4.307098387</v>
+        <v>16.99221060179573</v>
       </c>
       <c r="L3">
-        <v>16.94286105</v>
-      </c>
-      <c r="M3">
-        <v>25.2267587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>25.998357499467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.152</v>
+        <v>2.133791154165776</v>
       </c>
       <c r="C4">
-        <v>2.178444167</v>
+        <v>2.026876822124069</v>
       </c>
       <c r="D4">
-        <v>2.054798595</v>
+        <v>2.048</v>
       </c>
       <c r="E4">
-        <v>2.019709116</v>
+        <v>1.989296064287298</v>
       </c>
       <c r="F4">
-        <v>2.01377415</v>
+        <v>1.956245068269673</v>
       </c>
       <c r="G4">
-        <v>1.979306388</v>
+        <v>1.382257953150489</v>
       </c>
       <c r="H4">
-        <v>1.40592353</v>
+        <v>1.238484495193296</v>
       </c>
       <c r="I4">
-        <v>1.263809907</v>
+        <v>1.07065149454132</v>
       </c>
       <c r="J4">
-        <v>1.097334917</v>
+        <v>4.542380090419562</v>
       </c>
       <c r="K4">
-        <v>4.535785301</v>
+        <v>15.72805230254441</v>
       </c>
       <c r="L4">
-        <v>15.81003798</v>
-      </c>
-      <c r="M4">
-        <v>28.40264481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>28.1081975024058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.152</v>
+        <v>2.12593954493507</v>
       </c>
       <c r="C5">
-        <v>2.138258005</v>
+        <v>2.03746318381961</v>
       </c>
       <c r="D5">
-        <v>2.030625926</v>
+        <v>2.094</v>
       </c>
       <c r="E5">
-        <v>2.01226768</v>
+        <v>2.015946450492577</v>
       </c>
       <c r="F5">
-        <v>2.002833712</v>
+        <v>1.997288689626244</v>
       </c>
       <c r="G5">
-        <v>1.983236496</v>
+        <v>1.426926342614089</v>
       </c>
       <c r="H5">
-        <v>1.424241839</v>
+        <v>1.280475259372176</v>
       </c>
       <c r="I5">
-        <v>1.282631855</v>
+        <v>1.107783914100905</v>
       </c>
       <c r="J5">
-        <v>1.111844952</v>
+        <v>4.459879089648893</v>
       </c>
       <c r="K5">
-        <v>4.374900365</v>
+        <v>15.47831743630059</v>
       </c>
       <c r="L5">
-        <v>15.2553732</v>
-      </c>
-      <c r="M5">
-        <v>24.97473606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25.50211167436868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.198</v>
+        <v>2.167852180366931</v>
       </c>
       <c r="C6">
-        <v>2.203051977</v>
+        <v>2.069968659051609</v>
       </c>
       <c r="D6">
-        <v>2.084462811</v>
+        <v>2.079</v>
       </c>
       <c r="E6">
-        <v>2.064875871</v>
+        <v>2.04049949571776</v>
       </c>
       <c r="F6">
-        <v>2.048886947</v>
+        <v>2.013575149158487</v>
       </c>
       <c r="G6">
-        <v>2.021916887</v>
+        <v>1.414683236882225</v>
       </c>
       <c r="H6">
-        <v>1.428896572</v>
+        <v>1.265566715944282</v>
       </c>
       <c r="I6">
-        <v>1.283524934</v>
+        <v>1.095262269441746</v>
       </c>
       <c r="J6">
-        <v>1.112909316</v>
+        <v>4.639669594882085</v>
       </c>
       <c r="K6">
-        <v>4.593545296</v>
+        <v>16.99984014427918</v>
       </c>
       <c r="L6">
-        <v>16.92704581</v>
-      </c>
-      <c r="M6">
-        <v>29.66841192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>30.8676996580875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.275</v>
+        <v>2.24925953541082</v>
       </c>
       <c r="C7">
-        <v>2.248571059</v>
+        <v>2.155799073895071</v>
       </c>
       <c r="D7">
-        <v>2.133672782</v>
+        <v>2.14</v>
       </c>
       <c r="E7">
-        <v>2.099094672</v>
+        <v>2.128420237122893</v>
       </c>
       <c r="F7">
-        <v>2.09904295</v>
+        <v>2.096557475193709</v>
       </c>
       <c r="G7">
-        <v>2.066246714</v>
+        <v>1.449053972653482</v>
       </c>
       <c r="H7">
-        <v>1.432588402</v>
+        <v>1.288122385588874</v>
       </c>
       <c r="I7">
-        <v>1.278520477</v>
+        <v>1.103204761400985</v>
       </c>
       <c r="J7">
-        <v>1.097439139</v>
+        <v>5.051269458528062</v>
       </c>
       <c r="K7">
-        <v>4.919233255</v>
+        <v>15.82966591299394</v>
       </c>
       <c r="L7">
-        <v>15.60899398</v>
-      </c>
-      <c r="M7">
-        <v>29.10728265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>29.5160922993044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.198</v>
+        <v>2.216458563137705</v>
       </c>
       <c r="C8">
-        <v>2.216166626</v>
+        <v>2.122969627951549</v>
       </c>
       <c r="D8">
-        <v>2.100272712</v>
+        <v>2.124</v>
       </c>
       <c r="E8">
-        <v>2.065472872</v>
+        <v>2.096912842662566</v>
       </c>
       <c r="F8">
-        <v>2.067166831</v>
+        <v>2.072122564278414</v>
       </c>
       <c r="G8">
-        <v>2.040797562</v>
+        <v>1.442706743777732</v>
       </c>
       <c r="H8">
-        <v>1.426631452</v>
+        <v>1.288627123855936</v>
       </c>
       <c r="I8">
-        <v>1.278699161</v>
+        <v>1.111907589539723</v>
       </c>
       <c r="J8">
-        <v>1.107199237</v>
+        <v>4.895670001812017</v>
       </c>
       <c r="K8">
-        <v>4.761425157</v>
+        <v>15.72605351159002</v>
       </c>
       <c r="L8">
-        <v>15.30191184</v>
-      </c>
-      <c r="M8">
-        <v>31.05188827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>31.79396887822998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.137</v>
+        <v>2.106994300995883</v>
       </c>
       <c r="C9">
-        <v>2.16741516</v>
+        <v>2.020025521383884</v>
       </c>
       <c r="D9">
-        <v>2.058966403</v>
+        <v>2.064</v>
       </c>
       <c r="E9">
-        <v>2.04035194</v>
+        <v>1.995910805556589</v>
       </c>
       <c r="F9">
-        <v>2.028231669</v>
+        <v>1.97036357090989</v>
       </c>
       <c r="G9">
-        <v>1.999298481</v>
+        <v>1.361430281434849</v>
       </c>
       <c r="H9">
-        <v>1.388833105</v>
+        <v>1.213215028712026</v>
       </c>
       <c r="I9">
-        <v>1.242873726</v>
+        <v>1.043400895712697</v>
       </c>
       <c r="J9">
-        <v>1.073851012</v>
+        <v>4.595917213035739</v>
       </c>
       <c r="K9">
-        <v>4.630192031</v>
+        <v>14.19736199587448</v>
       </c>
       <c r="L9">
-        <v>14.6543797</v>
-      </c>
-      <c r="M9">
-        <v>27.54593477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>27.56487251791072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.337</v>
+        <v>2.339479875654808</v>
       </c>
       <c r="C10">
-        <v>2.320998147</v>
+        <v>2.228060709210951</v>
       </c>
       <c r="D10">
-        <v>2.190492553</v>
+        <v>2.246</v>
       </c>
       <c r="E10">
-        <v>2.154733579</v>
+        <v>2.192278746810843</v>
       </c>
       <c r="F10">
-        <v>2.149258734</v>
+        <v>2.161781174576154</v>
       </c>
       <c r="G10">
-        <v>2.11926745</v>
+        <v>1.529895095598177</v>
       </c>
       <c r="H10">
-        <v>1.508296496</v>
+        <v>1.369382178071959</v>
       </c>
       <c r="I10">
-        <v>1.354697133</v>
+        <v>1.181214585274221</v>
       </c>
       <c r="J10">
-        <v>1.169409698</v>
+        <v>4.866851959393239</v>
       </c>
       <c r="K10">
-        <v>4.706666409</v>
+        <v>16.74610606463894</v>
       </c>
       <c r="L10">
-        <v>16.80922334</v>
-      </c>
-      <c r="M10">
-        <v>28.5414809</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>29.20891061921214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.521</v>
+        <v>2.409159670083354</v>
       </c>
       <c r="C11">
-        <v>2.442501275</v>
+        <v>2.297369975205011</v>
       </c>
       <c r="D11">
-        <v>2.308629812</v>
+        <v>2.337</v>
       </c>
       <c r="E11">
-        <v>2.271699719</v>
+        <v>2.258760833993021</v>
       </c>
       <c r="F11">
-        <v>2.262827436</v>
+        <v>2.213413906515101</v>
       </c>
       <c r="G11">
-        <v>2.216073007</v>
+        <v>1.522378536703649</v>
       </c>
       <c r="H11">
-        <v>1.532657439</v>
+        <v>1.350772125982175</v>
       </c>
       <c r="I11">
-        <v>1.363417218</v>
+        <v>1.161574155600589</v>
       </c>
       <c r="J11">
-        <v>1.174134759</v>
+        <v>5.189435424460455</v>
       </c>
       <c r="K11">
-        <v>5.135826554</v>
+        <v>18.94391266160681</v>
       </c>
       <c r="L11">
-        <v>19.10881035</v>
-      </c>
-      <c r="M11">
-        <v>29.93630315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>29.58452958841314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.075</v>
+        <v>2.110011687681527</v>
       </c>
       <c r="C12">
-        <v>2.105648865</v>
+        <v>2.02318701498475</v>
       </c>
       <c r="D12">
-        <v>1.996519896</v>
+        <v>2.033</v>
       </c>
       <c r="E12">
-        <v>1.977899503</v>
+        <v>1.998878622783194</v>
       </c>
       <c r="F12">
-        <v>1.964967003</v>
+        <v>1.96930852087651</v>
       </c>
       <c r="G12">
-        <v>1.935553203</v>
+        <v>1.373236888346223</v>
       </c>
       <c r="H12">
-        <v>1.356171935</v>
+        <v>1.224001856700788</v>
       </c>
       <c r="I12">
-        <v>1.213586863</v>
+        <v>1.043131874226691</v>
       </c>
       <c r="J12">
-        <v>1.036679983</v>
+        <v>4.729181682103412</v>
       </c>
       <c r="K12">
-        <v>4.597662452</v>
+        <v>16.32862672262808</v>
       </c>
       <c r="L12">
-        <v>16.52518765</v>
-      </c>
-      <c r="M12">
-        <v>28.39800183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>29.47767105014468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.152</v>
+        <v>2.156897019845621</v>
       </c>
       <c r="C13">
-        <v>2.152311403</v>
+        <v>2.06322347244515</v>
       </c>
       <c r="D13">
-        <v>2.037870551</v>
+        <v>2.064</v>
       </c>
       <c r="E13">
-        <v>2.019446809</v>
+        <v>2.036202619335757</v>
       </c>
       <c r="F13">
-        <v>2.004168473</v>
+        <v>2.009427186148454</v>
       </c>
       <c r="G13">
-        <v>1.97536628</v>
+        <v>1.406553806074031</v>
       </c>
       <c r="H13">
-        <v>1.391037056</v>
+        <v>1.260290361581625</v>
       </c>
       <c r="I13">
-        <v>1.25080384</v>
+        <v>1.081012946875618</v>
       </c>
       <c r="J13">
-        <v>1.074810044</v>
+        <v>4.793160798568047</v>
       </c>
       <c r="K13">
-        <v>4.65618493</v>
+        <v>18.14218752183826</v>
       </c>
       <c r="L13">
-        <v>17.77776028</v>
-      </c>
-      <c r="M13">
-        <v>30.8038747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>32.04809687859242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.215</v>
+        <v>2.193209490699082</v>
       </c>
       <c r="C14">
-        <v>2.191148156</v>
+        <v>2.098586047026274</v>
       </c>
       <c r="D14">
-        <v>2.076892524</v>
+        <v>2.124</v>
       </c>
       <c r="E14">
-        <v>2.057662038</v>
+        <v>2.071938591508267</v>
       </c>
       <c r="F14">
-        <v>2.045594701</v>
+        <v>2.0489550926123</v>
       </c>
       <c r="G14">
-        <v>2.020976484</v>
+        <v>1.436546060786302</v>
       </c>
       <c r="H14">
-        <v>1.42358072</v>
+        <v>1.286015158062609</v>
       </c>
       <c r="I14">
-        <v>1.281099143</v>
+        <v>1.107026513517612</v>
       </c>
       <c r="J14">
-        <v>1.104476709</v>
+        <v>4.646930712946215</v>
       </c>
       <c r="K14">
-        <v>4.527286754</v>
+        <v>15.66239776252618</v>
       </c>
       <c r="L14">
-        <v>15.22755475</v>
-      </c>
-      <c r="M14">
-        <v>29.92217566</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>31.21644805650756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.152</v>
+        <v>2.124706323269394</v>
       </c>
       <c r="C15">
-        <v>2.127634874</v>
+        <v>2.033137589946631</v>
       </c>
       <c r="D15">
-        <v>2.016088505</v>
+        <v>2.064</v>
       </c>
       <c r="E15">
-        <v>1.997861687</v>
+        <v>2.00474893659211</v>
       </c>
       <c r="F15">
-        <v>1.981406391</v>
+        <v>1.970563205933194</v>
       </c>
       <c r="G15">
-        <v>1.946625027</v>
+        <v>1.361160714545739</v>
       </c>
       <c r="H15">
-        <v>1.353275003</v>
+        <v>1.207527629346417</v>
       </c>
       <c r="I15">
-        <v>1.205578035</v>
+        <v>1.026610533542357</v>
       </c>
       <c r="J15">
-        <v>1.026215206</v>
+        <v>4.740556160804174</v>
       </c>
       <c r="K15">
-        <v>4.623743689</v>
+        <v>15.80962048599277</v>
       </c>
       <c r="L15">
-        <v>15.69067376</v>
-      </c>
-      <c r="M15">
-        <v>26.76850842</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>27.66137617326849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.429</v>
+        <v>2.35005114303687</v>
       </c>
       <c r="C16">
-        <v>2.354844291</v>
+        <v>2.241563236424411</v>
       </c>
       <c r="D16">
-        <v>2.226862828</v>
+        <v>2.306</v>
       </c>
       <c r="E16">
-        <v>2.193997679</v>
+        <v>2.208774784480942</v>
       </c>
       <c r="F16">
-        <v>2.187748026</v>
+        <v>2.178592453844657</v>
       </c>
       <c r="G16">
-        <v>2.156661451</v>
+        <v>1.526274514185908</v>
       </c>
       <c r="H16">
-        <v>1.518706691</v>
+        <v>1.361291507913591</v>
       </c>
       <c r="I16">
-        <v>1.359138916</v>
+        <v>1.168906573253442</v>
       </c>
       <c r="J16">
-        <v>1.166384648</v>
+        <v>5.099464399197918</v>
       </c>
       <c r="K16">
-        <v>4.981521045</v>
+        <v>18.30685351359092</v>
       </c>
       <c r="L16">
-        <v>17.95720312</v>
-      </c>
-      <c r="M16">
-        <v>26.06531784</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>26.91892935783462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2.367</v>
+        <v>2.296809494405571</v>
       </c>
       <c r="C17">
-        <v>2.354455436</v>
+        <v>2.196042713142743</v>
       </c>
       <c r="D17">
-        <v>2.225177166</v>
+        <v>2.215</v>
       </c>
       <c r="E17">
-        <v>2.204715766</v>
+        <v>2.167121100965782</v>
       </c>
       <c r="F17">
-        <v>2.185854585</v>
+        <v>2.138693957114823</v>
       </c>
       <c r="G17">
-        <v>2.15430997</v>
+        <v>1.489247020109629</v>
       </c>
       <c r="H17">
-        <v>1.507006668</v>
+        <v>1.32606439219368</v>
       </c>
       <c r="I17">
-        <v>1.345864954</v>
+        <v>1.136715566263283</v>
       </c>
       <c r="J17">
-        <v>1.157633416</v>
+        <v>5.028801717131734</v>
       </c>
       <c r="K17">
-        <v>5.006491264</v>
+        <v>15.44839377881802</v>
       </c>
       <c r="L17">
-        <v>15.93465749</v>
-      </c>
-      <c r="M17">
-        <v>35.15293649</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>35.20125696167172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.229</v>
+        <v>2.228089183361529</v>
       </c>
       <c r="C18">
-        <v>2.225428603</v>
+        <v>2.125309977265391</v>
       </c>
       <c r="D18">
-        <v>2.096959405</v>
+        <v>2.124</v>
       </c>
       <c r="E18">
-        <v>2.077543114</v>
+        <v>2.091466279319536</v>
       </c>
       <c r="F18">
-        <v>2.055452892</v>
+        <v>2.0619569846764</v>
       </c>
       <c r="G18">
-        <v>2.024693367</v>
+        <v>1.440139498427161</v>
       </c>
       <c r="H18">
-        <v>1.420425323</v>
+        <v>1.292403576178681</v>
       </c>
       <c r="I18">
-        <v>1.281499018</v>
+        <v>1.111016975291322</v>
       </c>
       <c r="J18">
-        <v>1.104251789</v>
+        <v>4.722241047410625</v>
       </c>
       <c r="K18">
-        <v>4.570959113</v>
+        <v>16.01038402839068</v>
       </c>
       <c r="L18">
-        <v>15.58005265</v>
-      </c>
-      <c r="M18">
-        <v>30.18890412</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>31.69662236088385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.306</v>
+        <v>2.193313812296803</v>
       </c>
       <c r="C19">
-        <v>2.279489557</v>
+        <v>2.105545555975788</v>
       </c>
       <c r="D19">
-        <v>2.163389816</v>
+        <v>2.155</v>
       </c>
       <c r="E19">
-        <v>2.143208941</v>
+        <v>2.083681169620636</v>
       </c>
       <c r="F19">
-        <v>2.134907418</v>
+        <v>2.064683322207356</v>
       </c>
       <c r="G19">
-        <v>2.113109193</v>
+        <v>1.445170865836841</v>
       </c>
       <c r="H19">
-        <v>1.485104642</v>
+        <v>1.297456257174758</v>
       </c>
       <c r="I19">
-        <v>1.338333077</v>
+        <v>1.114682093180179</v>
       </c>
       <c r="J19">
-        <v>1.151635528</v>
+        <v>4.924305767454027</v>
       </c>
       <c r="K19">
-        <v>4.963581181</v>
+        <v>17.62067395367039</v>
       </c>
       <c r="L19">
-        <v>17.74271121</v>
-      </c>
-      <c r="M19">
-        <v>28.60037607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>28.91118015493477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.244</v>
+        <v>2.200567352892164</v>
       </c>
       <c r="C20">
-        <v>2.216547277</v>
+        <v>2.105552059956197</v>
       </c>
       <c r="D20">
-        <v>2.098549753</v>
+        <v>2.094</v>
       </c>
       <c r="E20">
-        <v>2.048176499</v>
+        <v>2.07608843496664</v>
       </c>
       <c r="F20">
-        <v>2.063985253</v>
+        <v>2.045240304996496</v>
       </c>
       <c r="G20">
-        <v>2.032418052</v>
+        <v>1.42326854148561</v>
       </c>
       <c r="H20">
-        <v>1.420658729</v>
+        <v>1.276433443141614</v>
       </c>
       <c r="I20">
-        <v>1.282916177</v>
+        <v>1.095646933525338</v>
       </c>
       <c r="J20">
-        <v>1.097789895</v>
+        <v>4.811261905082011</v>
       </c>
       <c r="K20">
-        <v>4.690109385</v>
+        <v>15.90017231978635</v>
       </c>
       <c r="L20">
-        <v>15.58481271</v>
-      </c>
-      <c r="M20">
-        <v>29.07316414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>29.81366175408371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.183</v>
+        <v>2.210428934820537</v>
       </c>
       <c r="C21">
-        <v>2.258974059</v>
+        <v>2.123919161168951</v>
       </c>
       <c r="D21">
-        <v>2.147331145</v>
+        <v>2.124</v>
       </c>
       <c r="E21">
-        <v>2.127448449</v>
+        <v>2.100887837502162</v>
       </c>
       <c r="F21">
-        <v>2.118015286</v>
+        <v>2.078311310174017</v>
       </c>
       <c r="G21">
-        <v>2.093437551</v>
+        <v>1.459049599029638</v>
       </c>
       <c r="H21">
-        <v>1.475877621</v>
+        <v>1.3083717143382</v>
       </c>
       <c r="I21">
-        <v>1.348325086</v>
+        <v>1.129776545881674</v>
       </c>
       <c r="J21">
-        <v>1.146743299</v>
+        <v>4.913100365028581</v>
       </c>
       <c r="K21">
-        <v>4.882095887</v>
+        <v>18.36630564476877</v>
       </c>
       <c r="L21">
-        <v>18.56092048</v>
-      </c>
-      <c r="M21">
-        <v>28.38181181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>28.48206087843342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.26</v>
+        <v>2.364236320607088</v>
       </c>
       <c r="C22">
-        <v>2.27348132</v>
+        <v>2.26875719734437</v>
       </c>
       <c r="D22">
-        <v>2.157465289</v>
+        <v>2.246</v>
       </c>
       <c r="E22">
-        <v>2.1225016</v>
+        <v>2.242413883327934</v>
       </c>
       <c r="F22">
-        <v>2.125073677</v>
+        <v>2.215387651092348</v>
       </c>
       <c r="G22">
-        <v>2.097926052</v>
+        <v>1.560169193255198</v>
       </c>
       <c r="H22">
-        <v>1.486384708</v>
+        <v>1.394322482976879</v>
       </c>
       <c r="I22">
-        <v>1.330943956</v>
+        <v>1.199568189922721</v>
       </c>
       <c r="J22">
-        <v>1.142938498</v>
+        <v>4.973145160827122</v>
       </c>
       <c r="K22">
-        <v>4.643351641</v>
+        <v>17.21031076093712</v>
       </c>
       <c r="L22">
-        <v>16.15688347</v>
-      </c>
-      <c r="M22">
-        <v>24.74107546</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>26.65993061422121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2.183</v>
+        <v>2.178400186828106</v>
       </c>
       <c r="C23">
-        <v>2.175973127</v>
+        <v>2.075797492357236</v>
       </c>
       <c r="D23">
-        <v>2.045487956</v>
+        <v>2.094</v>
       </c>
       <c r="E23">
-        <v>2.026995348</v>
+        <v>2.038749413801963</v>
       </c>
       <c r="F23">
-        <v>2.000097772</v>
+        <v>2.001254597617157</v>
       </c>
       <c r="G23">
-        <v>1.961292207</v>
+        <v>1.386903031476952</v>
       </c>
       <c r="H23">
-        <v>1.367394178</v>
+        <v>1.234741573486634</v>
       </c>
       <c r="I23">
-        <v>1.22353158</v>
+        <v>1.054118522633774</v>
       </c>
       <c r="J23">
-        <v>1.04361417</v>
+        <v>4.658865761652343</v>
       </c>
       <c r="K23">
-        <v>4.4856956</v>
+        <v>14.99063672268217</v>
       </c>
       <c r="L23">
-        <v>14.78632203</v>
-      </c>
-      <c r="M23">
-        <v>25.95849098</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>26.75005032387234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2.232</v>
+        <v>2.202548956202833</v>
       </c>
       <c r="C24">
-        <v>2.247267359</v>
+        <v>2.104230353583421</v>
       </c>
       <c r="D24">
-        <v>2.12637581</v>
+        <v>2.124</v>
       </c>
       <c r="E24">
-        <v>2.091143463</v>
+        <v>2.068430184810378</v>
       </c>
       <c r="F24">
-        <v>2.0850285</v>
+        <v>2.02645330584961</v>
       </c>
       <c r="G24">
-        <v>2.041943085</v>
+        <v>1.407828352995201</v>
       </c>
       <c r="H24">
-        <v>1.426562949</v>
+        <v>1.261397728179153</v>
       </c>
       <c r="I24">
-        <v>1.284303422</v>
+        <v>1.081552554924756</v>
       </c>
       <c r="J24">
-        <v>1.100492782</v>
+        <v>4.591229176761673</v>
       </c>
       <c r="K24">
-        <v>4.54888683</v>
+        <v>17.07292126758894</v>
       </c>
       <c r="L24">
-        <v>17.02678482</v>
-      </c>
-      <c r="M24">
-        <v>22.78469968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>22.74610177562469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2.367</v>
+        <v>2.406823483600406</v>
       </c>
       <c r="C25">
-        <v>2.334863385</v>
+        <v>2.298597976909719</v>
       </c>
       <c r="D25">
-        <v>2.213717075</v>
+        <v>2.246</v>
       </c>
       <c r="E25">
-        <v>2.178338035</v>
+        <v>2.264875917468386</v>
       </c>
       <c r="F25">
-        <v>2.179431718</v>
+        <v>2.23100109293086</v>
       </c>
       <c r="G25">
-        <v>2.14696575</v>
+        <v>1.547345298823198</v>
       </c>
       <c r="H25">
-        <v>1.496842243</v>
+        <v>1.38917307060136</v>
       </c>
       <c r="I25">
-        <v>1.349228788</v>
+        <v>1.193686031212062</v>
       </c>
       <c r="J25">
-        <v>1.155444327</v>
+        <v>5.274587222896983</v>
       </c>
       <c r="K25">
-        <v>4.992395342</v>
+        <v>19.26243589685674</v>
       </c>
       <c r="L25">
-        <v>18.59957479</v>
-      </c>
-      <c r="M25">
-        <v>32.45725965</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>33.8074359833487</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2.232</v>
+        <v>2.19796903751202</v>
       </c>
       <c r="C26">
-        <v>2.237511789</v>
+        <v>2.10517295009684</v>
       </c>
       <c r="D26">
-        <v>2.114980446</v>
+        <v>2.124</v>
       </c>
       <c r="E26">
-        <v>2.095397294</v>
+        <v>2.07798486268383</v>
       </c>
       <c r="F26">
-        <v>2.079274959</v>
+        <v>2.058331273905079</v>
       </c>
       <c r="G26">
-        <v>2.056820428</v>
+        <v>1.461348162262563</v>
       </c>
       <c r="H26">
-        <v>1.465848907</v>
+        <v>1.314158200401471</v>
       </c>
       <c r="I26">
-        <v>1.325199847</v>
+        <v>1.139467144722061</v>
       </c>
       <c r="J26">
-        <v>1.145065143</v>
+        <v>4.580532528769993</v>
       </c>
       <c r="K26">
-        <v>4.512301728</v>
+        <v>15.29721360466792</v>
       </c>
       <c r="L26">
-        <v>15.47974923</v>
-      </c>
-      <c r="M26">
-        <v>27.75982795</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>28.19365690283182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2.183</v>
+        <v>2.16040495943551</v>
       </c>
       <c r="C27">
-        <v>2.197280632</v>
+        <v>2.07810497935046</v>
       </c>
       <c r="D27">
-        <v>2.090528194</v>
+        <v>2.094</v>
       </c>
       <c r="E27">
-        <v>2.055634743</v>
+        <v>2.053470805563276</v>
       </c>
       <c r="F27">
-        <v>2.059088417</v>
+        <v>2.021363143167868</v>
       </c>
       <c r="G27">
-        <v>2.024881765</v>
+        <v>1.412010369351226</v>
       </c>
       <c r="H27">
-        <v>1.421259763</v>
+        <v>1.266715389557868</v>
       </c>
       <c r="I27">
-        <v>1.280484647</v>
+        <v>1.088889041118427</v>
       </c>
       <c r="J27">
-        <v>1.098917371</v>
+        <v>4.653906963926393</v>
       </c>
       <c r="K27">
-        <v>4.584915505</v>
+        <v>15.84564714873817</v>
       </c>
       <c r="L27">
-        <v>16.14752619</v>
-      </c>
-      <c r="M27">
-        <v>25.82937378</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>25.98651404899051</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2.232</v>
+        <v>2.155220282952707</v>
       </c>
       <c r="C28">
-        <v>2.208666159</v>
+        <v>2.060995212579119</v>
       </c>
       <c r="D28">
-        <v>2.090067713</v>
+        <v>2.094</v>
       </c>
       <c r="E28">
-        <v>2.070715234</v>
+        <v>2.031283462748699</v>
       </c>
       <c r="F28">
-        <v>2.054215129</v>
+        <v>2.001752329874826</v>
       </c>
       <c r="G28">
-        <v>2.023253312</v>
+        <v>1.406318085366092</v>
       </c>
       <c r="H28">
-        <v>1.425706394</v>
+        <v>1.261098513170943</v>
       </c>
       <c r="I28">
-        <v>1.283802895</v>
+        <v>1.08281607528638</v>
       </c>
       <c r="J28">
-        <v>1.108361833</v>
+        <v>4.607652277734892</v>
       </c>
       <c r="K28">
-        <v>4.609833511</v>
+        <v>17.86496425560524</v>
       </c>
       <c r="L28">
-        <v>18.42175014</v>
-      </c>
-      <c r="M28">
-        <v>28.89078953</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>27.05613659149066</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2.244</v>
+        <v>2.225632413239707</v>
       </c>
       <c r="C29">
-        <v>2.237310868</v>
+        <v>2.130376002097019</v>
       </c>
       <c r="D29">
-        <v>2.117700813</v>
+        <v>2.155</v>
       </c>
       <c r="E29">
-        <v>2.098384291</v>
+        <v>2.09985722557447</v>
       </c>
       <c r="F29">
-        <v>2.081483592</v>
+        <v>2.068363902224166</v>
       </c>
       <c r="G29">
-        <v>2.047365482</v>
+        <v>1.470011525382265</v>
       </c>
       <c r="H29">
-        <v>1.461996118</v>
+        <v>1.317149465244432</v>
       </c>
       <c r="I29">
-        <v>1.314040825</v>
+        <v>1.131133350286236</v>
       </c>
       <c r="J29">
-        <v>1.129643813</v>
+        <v>4.722277438559861</v>
       </c>
       <c r="K29">
-        <v>4.619343104</v>
+        <v>16.95053390506915</v>
       </c>
       <c r="L29">
-        <v>16.74315006</v>
-      </c>
-      <c r="M29">
-        <v>30.56909112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>30.126488561337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2.367</v>
+        <v>2.259537090725477</v>
       </c>
       <c r="C30">
-        <v>2.316538246</v>
+        <v>2.164340642670916</v>
       </c>
       <c r="D30">
-        <v>2.199146263</v>
+        <v>2.187</v>
       </c>
       <c r="E30">
-        <v>2.16400009</v>
+        <v>2.135749981729681</v>
       </c>
       <c r="F30">
-        <v>2.165917617</v>
+        <v>2.105857353958412</v>
       </c>
       <c r="G30">
-        <v>2.133207571</v>
+        <v>1.460909111586974</v>
       </c>
       <c r="H30">
-        <v>1.487520745</v>
+        <v>1.30119071366692</v>
       </c>
       <c r="I30">
-        <v>1.330515252</v>
+        <v>1.111945635567193</v>
       </c>
       <c r="J30">
-        <v>1.134372583</v>
+        <v>5.016640869872084</v>
       </c>
       <c r="K30">
-        <v>5.008676753</v>
+        <v>16.69478045809705</v>
       </c>
       <c r="L30">
-        <v>17.15873942</v>
-      </c>
-      <c r="M30">
-        <v>28.47747048</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>28.42385614202281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2.244</v>
+        <v>2.291012508442835</v>
       </c>
       <c r="C31">
-        <v>2.271681233</v>
+        <v>2.199465300743851</v>
       </c>
       <c r="D31">
-        <v>2.160351824</v>
+        <v>2.203</v>
       </c>
       <c r="E31">
-        <v>2.14078715</v>
+        <v>2.176314391848541</v>
       </c>
       <c r="F31">
-        <v>2.131315201</v>
+        <v>2.150855044298706</v>
       </c>
       <c r="G31">
-        <v>2.104867889</v>
+        <v>1.494065707569997</v>
       </c>
       <c r="H31">
-        <v>1.469045366</v>
+        <v>1.331851025411601</v>
       </c>
       <c r="I31">
-        <v>1.316020445</v>
+        <v>1.14325609252445</v>
       </c>
       <c r="J31">
-        <v>1.128543475</v>
+        <v>5.052881820228068</v>
       </c>
       <c r="K31">
-        <v>4.87125686</v>
+        <v>18.40311538893331</v>
       </c>
       <c r="L31">
-        <v>17.74180135</v>
-      </c>
-      <c r="M31">
-        <v>31.05808552</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>32.16404851745298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2.198</v>
+        <v>2.191714951302089</v>
       </c>
       <c r="C32">
-        <v>2.209905708</v>
+        <v>2.109066536553348</v>
       </c>
       <c r="D32">
-        <v>2.104540833</v>
+        <v>2.155</v>
       </c>
       <c r="E32">
-        <v>2.085054344</v>
+        <v>2.089266686983763</v>
       </c>
       <c r="F32">
-        <v>2.077730699</v>
+        <v>2.066870528438108</v>
       </c>
       <c r="G32">
-        <v>2.053290401</v>
+        <v>1.456188837947223</v>
       </c>
       <c r="H32">
-        <v>1.454103124</v>
+        <v>1.298057241079068</v>
       </c>
       <c r="I32">
-        <v>1.30056468</v>
+        <v>1.114402440631215</v>
       </c>
       <c r="J32">
-        <v>1.115447742</v>
+        <v>4.846839471386003</v>
       </c>
       <c r="K32">
-        <v>4.746607324</v>
+        <v>19.14137725459336</v>
       </c>
       <c r="L32">
-        <v>19.10092096</v>
-      </c>
-      <c r="M32">
-        <v>26.39662987</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>26.76126282973788</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2.229</v>
+        <v>2.325132858419651</v>
       </c>
       <c r="C33">
-        <v>2.305858566</v>
+        <v>2.210101813935179</v>
       </c>
       <c r="D33">
-        <v>2.171632619</v>
+        <v>2.14</v>
       </c>
       <c r="E33">
-        <v>2.135650403</v>
+        <v>2.170882809219006</v>
       </c>
       <c r="F33">
-        <v>2.127955432</v>
+        <v>2.136440354844432</v>
       </c>
       <c r="G33">
-        <v>2.093723174</v>
+        <v>1.496280635984382</v>
       </c>
       <c r="H33">
-        <v>1.475527833</v>
+        <v>1.333174786098948</v>
       </c>
       <c r="I33">
-        <v>1.319096553</v>
+        <v>1.141437652814774</v>
       </c>
       <c r="J33">
-        <v>1.128659752</v>
+        <v>4.991703672454366</v>
       </c>
       <c r="K33">
-        <v>4.830429539</v>
+        <v>18.18750092789313</v>
       </c>
       <c r="L33">
-        <v>17.92122371</v>
-      </c>
-      <c r="M33">
-        <v>24.97850868</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>25.82252911501139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2.306</v>
+        <v>2.246707187913336</v>
       </c>
       <c r="C34">
-        <v>2.303873381</v>
+        <v>2.146366013504094</v>
       </c>
       <c r="D34">
-        <v>2.178797062</v>
+        <v>2.215</v>
       </c>
       <c r="E34">
-        <v>2.127985564</v>
+        <v>2.115549448058973</v>
       </c>
       <c r="F34">
-        <v>2.14152936</v>
+        <v>2.091176271467576</v>
       </c>
       <c r="G34">
-        <v>2.114401384</v>
+        <v>1.476744733857354</v>
       </c>
       <c r="H34">
-        <v>1.498514866</v>
+        <v>1.318864338243214</v>
       </c>
       <c r="I34">
-        <v>1.342764265</v>
+        <v>1.132079983642277</v>
       </c>
       <c r="J34">
-        <v>1.152702021</v>
+        <v>4.86136283444885</v>
       </c>
       <c r="K34">
-        <v>4.846707588</v>
+        <v>19.26578479684937</v>
       </c>
       <c r="L34">
-        <v>19.64567629</v>
-      </c>
-      <c r="M34">
-        <v>27.41863973</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>27.28477246826469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2.183</v>
+        <v>2.191304171988553</v>
       </c>
       <c r="C35">
-        <v>2.13216525</v>
+        <v>2.082762597434527</v>
       </c>
       <c r="D35">
-        <v>2.006837742</v>
+        <v>2.064</v>
       </c>
       <c r="E35">
-        <v>1.988694558</v>
+        <v>2.043071152672259</v>
       </c>
       <c r="F35">
-        <v>1.964194219</v>
+        <v>2.004003044390587</v>
       </c>
       <c r="G35">
-        <v>1.926199939</v>
+        <v>1.398464986703055</v>
       </c>
       <c r="H35">
-        <v>1.352654017</v>
+        <v>1.24466805215338</v>
       </c>
       <c r="I35">
-        <v>1.208938347</v>
+        <v>1.060310019332224</v>
       </c>
       <c r="J35">
-        <v>1.026557547</v>
+        <v>4.873851537291147</v>
       </c>
       <c r="K35">
-        <v>4.592904531</v>
+        <v>16.52593959652283</v>
       </c>
       <c r="L35">
-        <v>15.91302515</v>
-      </c>
-      <c r="M35">
-        <v>24.19271398</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>25.49827948278124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2.367</v>
+        <v>2.259737331572748</v>
       </c>
       <c r="C36">
-        <v>2.367873378</v>
+        <v>2.16699711516504</v>
       </c>
       <c r="D36">
-        <v>2.243834295</v>
+        <v>2.2</v>
       </c>
       <c r="E36">
-        <v>2.207973929</v>
+        <v>2.140213671826324</v>
       </c>
       <c r="F36">
-        <v>2.207418105</v>
+        <v>2.114105433148967</v>
       </c>
       <c r="G36">
-        <v>2.176582416</v>
+        <v>1.484705234796237</v>
       </c>
       <c r="H36">
-        <v>1.532695796</v>
+        <v>1.322618508100671</v>
       </c>
       <c r="I36">
-        <v>1.369881215</v>
+        <v>1.1335046531662</v>
       </c>
       <c r="J36">
-        <v>1.174683785</v>
+        <v>4.955969680789358</v>
       </c>
       <c r="K36">
-        <v>5.045942563</v>
+        <v>17.88079603278174</v>
       </c>
       <c r="L36">
-        <v>18.82416334</v>
-      </c>
-      <c r="M36">
-        <v>30.61573439</v>
+        <v>28.82596531639701</v>
       </c>
     </row>
   </sheetData>
@@ -1907,13 +1796,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1950,11 +1839,8 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1977,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.579753078607609</v>
       </c>
       <c r="I2">
-        <v>2.551179652</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1991,11 +1877,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2018,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.531789208982883</v>
       </c>
       <c r="I3">
-        <v>2.510861168</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2032,11 +1915,8 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2059,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.47110144093244</v>
       </c>
       <c r="I4">
-        <v>2.52163228</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2073,11 +1953,8 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2100,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.554884030275304</v>
       </c>
       <c r="I5">
-        <v>2.559187004</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2114,11 +1991,8 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2141,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.52513757540255</v>
       </c>
       <c r="I6">
-        <v>2.560968931</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2155,11 +2029,8 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2182,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.57014205303329</v>
       </c>
       <c r="I7">
-        <v>2.550983727</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2196,11 +2067,8 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2223,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.571149138276484</v>
       </c>
       <c r="I8">
-        <v>2.551340249</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2237,11 +2105,8 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2264,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.420682226742993</v>
       </c>
       <c r="I9">
-        <v>2.479859109</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2278,11 +2143,8 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2305,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.732276654696983</v>
       </c>
       <c r="I10">
-        <v>2.702976137</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2319,11 +2181,8 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2346,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.695144719082629</v>
       </c>
       <c r="I11">
-        <v>2.720374995</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2360,11 +2219,8 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2387,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.442204778127021</v>
       </c>
       <c r="I12">
-        <v>2.421424134</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2401,11 +2257,8 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2428,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.514609864382319</v>
       </c>
       <c r="I13">
-        <v>2.495681766</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2442,11 +2295,8 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2469,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.565937581361071</v>
       </c>
       <c r="I14">
-        <v>2.556128841</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2483,11 +2333,8 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2510,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.409334373118615</v>
       </c>
       <c r="I15">
-        <v>2.405444421</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2524,11 +2371,8 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2551,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.716133645427148</v>
       </c>
       <c r="I16">
-        <v>2.711838659</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2565,11 +2409,8 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2592,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.645846308966162</v>
       </c>
       <c r="I17">
-        <v>2.685353623</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2606,11 +2447,8 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2633,10 +2471,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.578684151280334</v>
       </c>
       <c r="I18">
-        <v>2.556926697</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2647,11 +2485,8 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2674,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.588765575261366</v>
       </c>
       <c r="I19">
-        <v>2.670325553</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2688,11 +2523,8 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2715,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.546819546666435</v>
       </c>
       <c r="I20">
-        <v>2.559754302</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2729,11 +2561,8 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2756,10 +2585,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.610544775590239</v>
       </c>
       <c r="I21">
-        <v>2.690262233</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2770,11 +2599,8 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2797,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.782039105197604</v>
       </c>
       <c r="I22">
-        <v>2.655582319</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2811,11 +2637,8 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2838,10 +2661,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.463633330303258</v>
       </c>
       <c r="I23">
-        <v>2.441266452</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2852,11 +2675,8 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2879,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.516819351223222</v>
       </c>
       <c r="I24">
-        <v>2.562522219</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2893,11 +2713,8 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2920,10 +2737,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.771764676740496</v>
       </c>
       <c r="I25">
-        <v>2.692065355</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2934,11 +2751,8 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2961,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2.622090333168376</v>
       </c>
       <c r="I26">
-        <v>2.644121314</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2975,11 +2789,8 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3002,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2.527429480575938</v>
       </c>
       <c r="I27">
-        <v>2.554902761</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3016,11 +2827,8 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3043,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2.516222338793268</v>
       </c>
       <c r="I28">
-        <v>2.561523535</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3057,11 +2865,8 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3084,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2.628058691183627</v>
       </c>
       <c r="I29">
-        <v>2.621856138</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3098,11 +2903,8 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3125,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2.596216795567067</v>
       </c>
       <c r="I30">
-        <v>2.654726942</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3139,11 +2941,8 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3166,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2.657392160156427</v>
       </c>
       <c r="I31">
-        <v>2.625806</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3180,11 +2979,8 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3207,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2.589964695797538</v>
       </c>
       <c r="I32">
-        <v>2.594967694</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3221,11 +3017,8 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3248,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2.660033409969928</v>
       </c>
       <c r="I33">
-        <v>2.631943641</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3262,11 +3055,8 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3289,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2.631480312653054</v>
       </c>
       <c r="I34">
-        <v>2.679166937</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3303,11 +3093,8 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3330,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2.483439259107359</v>
       </c>
       <c r="I35">
-        <v>2.412149126</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3344,11 +3131,8 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3371,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2.63897086629363</v>
       </c>
       <c r="I36">
-        <v>2.733272365</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3383,9 +3167,6 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
         <v>0</v>
       </c>
     </row>
@@ -3396,13 +3177,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3439,11 +3220,8 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3466,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.147284099670713</v>
       </c>
       <c r="I2">
-        <v>5.090272618</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -3480,11 +3258,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3507,10 +3282,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.051583598128415</v>
       </c>
       <c r="I3">
-        <v>5.009826667</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -3521,11 +3296,8 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3548,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.930495581557794</v>
       </c>
       <c r="I4">
-        <v>5.031317861</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3562,11 +3334,8 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3589,10 +3358,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.097663824724124</v>
       </c>
       <c r="I5">
-        <v>5.106249385</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -3603,11 +3372,8 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3630,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5.038311844312597</v>
       </c>
       <c r="I6">
-        <v>5.109804797</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3644,11 +3410,8 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3671,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5.128107582534072</v>
       </c>
       <c r="I7">
-        <v>5.089881697</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -3685,11 +3448,8 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3712,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.130116981767777</v>
       </c>
       <c r="I8">
-        <v>5.090593051</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3726,11 +3486,8 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3753,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4.829896023535245</v>
       </c>
       <c r="I9">
-        <v>4.947969426</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3767,11 +3524,8 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3794,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.451608643186129</v>
       </c>
       <c r="I10">
-        <v>5.393146425</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3808,11 +3562,8 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3835,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.377520691372958</v>
       </c>
       <c r="I11">
-        <v>5.42786171</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3849,11 +3600,8 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3876,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.872839159233779</v>
       </c>
       <c r="I12">
-        <v>4.831376323</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3890,11 +3638,8 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3917,10 +3662,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.017306299251047</v>
       </c>
       <c r="I13">
-        <v>4.979539777</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3931,11 +3676,8 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3958,10 +3700,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5.119718558652138</v>
       </c>
       <c r="I14">
-        <v>5.10014755</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3972,11 +3714,8 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3999,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4.807254078842743</v>
       </c>
       <c r="I15">
-        <v>4.799492604</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -4013,11 +3752,8 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4040,10 +3776,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5.419399105139834</v>
       </c>
       <c r="I16">
-        <v>5.410829481</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -4054,11 +3790,8 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4081,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.279157431479691</v>
       </c>
       <c r="I17">
-        <v>5.357984887</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -4095,11 +3828,8 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4122,10 +3852,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.145151309257159</v>
       </c>
       <c r="I18">
-        <v>5.101739481</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -4136,11 +3866,8 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4163,10 +3890,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.165266394607736</v>
       </c>
       <c r="I19">
-        <v>5.327999944</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -4177,11 +3904,8 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4204,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.081573064489662</v>
       </c>
       <c r="I20">
-        <v>5.107381294</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4218,11 +3942,8 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4245,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.208721612274093</v>
       </c>
       <c r="I21">
-        <v>5.367778851</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -4259,11 +3980,8 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4286,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.550897785370521</v>
       </c>
       <c r="I22">
-        <v>5.298583325</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -4300,11 +4018,8 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4327,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.91559474185537</v>
       </c>
       <c r="I23">
-        <v>4.870966953</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -4341,11 +4056,8 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4368,10 +4080,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.02171480508012</v>
       </c>
       <c r="I24">
-        <v>5.112904014</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4382,11 +4094,8 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4409,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.530397605462211</v>
       </c>
       <c r="I25">
-        <v>5.371376553</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -4423,11 +4132,8 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4450,10 +4156,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>5.231758028215054</v>
       </c>
       <c r="I26">
-        <v>5.275715614</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -4464,11 +4170,8 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4491,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>5.042884796334539</v>
       </c>
       <c r="I27">
-        <v>5.097701198</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -4505,11 +4208,8 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4532,10 +4232,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>5.020523608677063</v>
       </c>
       <c r="I28">
-        <v>5.110911379</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -4546,11 +4246,8 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4573,10 +4270,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>5.243666468045127</v>
       </c>
       <c r="I29">
-        <v>5.231290748</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -4587,11 +4284,8 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4614,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>5.180133533684233</v>
       </c>
       <c r="I30">
-        <v>5.296876624</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -4628,11 +4322,8 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4655,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>5.302194433253864</v>
       </c>
       <c r="I31">
-        <v>5.239171758</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -4669,11 +4360,8 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4696,10 +4384,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>5.167658954624666</v>
       </c>
       <c r="I32">
-        <v>5.177641248</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -4710,11 +4398,8 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4737,10 +4422,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>5.30746441947116</v>
       </c>
       <c r="I33">
-        <v>5.251417963</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -4751,11 +4436,8 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4778,10 +4460,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>5.250493500419164</v>
       </c>
       <c r="I34">
-        <v>5.345640824</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4792,11 +4474,8 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4819,10 +4498,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>4.955112765211148</v>
       </c>
       <c r="I35">
-        <v>4.812870249</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -4833,11 +4512,8 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4860,10 +4536,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>5.265439119816459</v>
       </c>
       <c r="I36">
-        <v>5.453595346</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -4872,9 +4548,6 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
         <v>0</v>
       </c>
     </row>
@@ -4885,13 +4558,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4928,11 +4601,8 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4955,10 +4625,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.27018198851149</v>
       </c>
       <c r="I2">
-        <v>10.15642913</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4969,11 +4639,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4996,10 +4663,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.07923438426052</v>
       </c>
       <c r="I3">
-        <v>9.995918353</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -5010,11 +4677,8 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5037,10 +4701,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.837632028002838</v>
       </c>
       <c r="I4">
-        <v>10.03879892</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -5051,11 +4715,8 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5078,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.17117652385217</v>
       </c>
       <c r="I5">
-        <v>10.18830697</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -5092,11 +4753,8 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5119,10 +4777,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.05275375401828</v>
       </c>
       <c r="I6">
-        <v>10.19540095</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5133,11 +4791,8 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5160,10 +4815,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.2319198065364</v>
       </c>
       <c r="I7">
-        <v>10.15564914</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -5174,11 +4829,8 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5201,10 +4853,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.23592908510314</v>
       </c>
       <c r="I8">
-        <v>10.15706848</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -5215,11 +4867,8 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5242,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.63690952097792</v>
       </c>
       <c r="I9">
-        <v>9.872496931000001</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -5256,11 +4905,8 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5283,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.87738928170791</v>
       </c>
       <c r="I10">
-        <v>10.76074182</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -5297,11 +4943,8 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5324,10 +4967,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.72956438346186</v>
       </c>
       <c r="I11">
-        <v>10.83000792</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5338,11 +4981,8 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5365,10 +5005,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9.7225923413238</v>
       </c>
       <c r="I12">
-        <v>9.639863106</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -5379,11 +5019,8 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5406,10 +5043,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.01084218155159</v>
       </c>
       <c r="I13">
-        <v>9.935488062999999</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -5420,11 +5057,8 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5447,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.2151815033254</v>
       </c>
       <c r="I14">
-        <v>10.17613221</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -5461,11 +5095,8 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5488,10 +5119,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.591732901995361</v>
       </c>
       <c r="I15">
-        <v>9.576246724000001</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -5502,11 +5133,8 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5529,10 +5157,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.81312280426158</v>
       </c>
       <c r="I16">
-        <v>10.79602416</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -5543,11 +5171,8 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5570,10 +5195,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.53330387781933</v>
       </c>
       <c r="I17">
-        <v>10.69058533</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -5584,11 +5209,8 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5611,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.2659265121736</v>
       </c>
       <c r="I18">
-        <v>10.17930853</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -5625,11 +5247,8 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5652,10 +5271,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.30606138393599</v>
       </c>
       <c r="I19">
-        <v>10.6307575</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -5666,11 +5285,8 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5693,10 +5309,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.13907123633715</v>
       </c>
       <c r="I20">
-        <v>10.19056542</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -5707,11 +5323,8 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5734,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.39276594213445</v>
       </c>
       <c r="I21">
-        <v>10.71012686</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -5748,11 +5361,8 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5775,10 +5385,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.07549716539402</v>
       </c>
       <c r="I22">
-        <v>10.57206363</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -5789,11 +5399,8 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5816,10 +5423,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>9.807900944083196</v>
       </c>
       <c r="I23">
-        <v>9.718856797999999</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -5830,11 +5437,8 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5857,10 +5461,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.01963830709766</v>
       </c>
       <c r="I24">
-        <v>10.2015847</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -5871,11 +5475,8 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5898,10 +5499,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.03459392897288</v>
       </c>
       <c r="I25">
-        <v>10.71730521</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -5912,11 +5513,8 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5939,10 +5537,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>10.43872963473339</v>
       </c>
       <c r="I26">
-        <v>10.52643655</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -5953,11 +5551,8 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5980,10 +5575,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>10.06187799285582</v>
       </c>
       <c r="I27">
-        <v>10.17125109</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -5994,11 +5589,8 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6021,10 +5613,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>10.01726155780491</v>
       </c>
       <c r="I28">
-        <v>10.19760887</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -6035,11 +5627,8 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6062,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>10.46249009595641</v>
       </c>
       <c r="I29">
-        <v>10.43779729</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -6076,11 +5665,8 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6103,10 +5689,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>10.33572522626673</v>
       </c>
       <c r="I30">
-        <v>10.56865832</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -6117,11 +5703,8 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6144,10 +5727,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>10.57926873930921</v>
       </c>
       <c r="I31">
-        <v>10.45352197</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -6158,11 +5741,8 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6185,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>10.31083516877407</v>
       </c>
       <c r="I32">
-        <v>10.33075246</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -6199,11 +5779,8 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6226,10 +5803,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>10.58978374420899</v>
       </c>
       <c r="I33">
-        <v>10.47795636</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -6240,11 +5817,8 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6267,10 +5841,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>10.4761118163754</v>
       </c>
       <c r="I34">
-        <v>10.66595569</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -6281,11 +5855,8 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6308,10 +5879,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>9.886749766847045</v>
       </c>
       <c r="I35">
-        <v>9.602938633999999</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -6322,11 +5893,8 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6349,10 +5917,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>10.50593224753269</v>
       </c>
       <c r="I36">
-        <v>10.88135327</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -6361,9 +5929,6 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
         <v>0</v>
       </c>
     </row>
@@ -6374,13 +5939,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6417,11 +5982,8 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6444,10 +6006,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>20.49170708954913</v>
       </c>
       <c r="I2">
-        <v>20.26474029</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -6458,11 +6020,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6485,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>20.11071653065358</v>
       </c>
       <c r="I3">
-        <v>19.94447919</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -6499,11 +6058,8 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6526,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>19.62865645400493</v>
       </c>
       <c r="I4">
-        <v>20.03003718</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -6540,11 +6096,8 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6567,10 +6120,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>20.2941652169384</v>
       </c>
       <c r="I5">
-        <v>20.32834495</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -6581,11 +6134,8 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6608,10 +6158,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>20.0578807270546</v>
       </c>
       <c r="I6">
-        <v>20.3424993</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -6622,11 +6172,8 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6649,10 +6196,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>20.41536399976574</v>
       </c>
       <c r="I7">
-        <v>20.26318401</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -6663,11 +6210,8 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6690,10 +6234,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>20.42336356220017</v>
       </c>
       <c r="I8">
-        <v>20.26601596</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -6704,11 +6248,8 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6731,10 +6272,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>19.22816239997204</v>
       </c>
       <c r="I9">
-        <v>19.69822108</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -6745,11 +6286,8 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6772,10 +6310,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>21.7032449190382</v>
       </c>
       <c r="I10">
-        <v>21.47050264</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -6786,11 +6324,8 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6813,10 +6348,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>21.40829547035374</v>
       </c>
       <c r="I11">
-        <v>21.60870667</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -6827,11 +6362,8 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6854,10 +6386,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>19.39912210244842</v>
       </c>
       <c r="I12">
-        <v>19.23405558</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -6868,11 +6400,8 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6895,10 +6424,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>19.97425614595073</v>
       </c>
       <c r="I13">
-        <v>19.82390491</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -6909,11 +6438,8 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6936,10 +6462,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>20.38196669415231</v>
       </c>
       <c r="I14">
-        <v>20.3040531</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -6950,11 +6476,8 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6977,10 +6500,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>19.13802319459843</v>
       </c>
       <c r="I15">
-        <v>19.10712421</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -6991,11 +6514,8 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7018,10 +6538,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>21.57501643847374</v>
       </c>
       <c r="I16">
-        <v>21.54090015</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -7032,11 +6552,8 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7059,10 +6576,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>21.01670427952848</v>
       </c>
       <c r="I17">
-        <v>21.33052203</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -7073,11 +6590,8 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7100,10 +6614,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>20.48321629797989</v>
       </c>
       <c r="I18">
-        <v>20.3103907</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -7114,11 +6628,8 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7141,10 +6652,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>20.56329589512349</v>
       </c>
       <c r="I19">
-        <v>21.21114982</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -7155,11 +6666,8 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7182,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>20.23010674664843</v>
       </c>
       <c r="I20">
-        <v>20.33285116</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -7196,11 +6704,8 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7223,10 +6728,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>20.7362942326329</v>
       </c>
       <c r="I21">
-        <v>21.36951251</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -7237,11 +6742,8 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7264,10 +6766,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>22.09852211365532</v>
       </c>
       <c r="I22">
-        <v>21.09404016</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -7278,11 +6780,8 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7305,10 +6804,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>19.5693351426769</v>
       </c>
       <c r="I23">
-        <v>19.39166871</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -7319,11 +6818,8 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7346,10 +6842,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>19.99180672377053</v>
       </c>
       <c r="I24">
-        <v>20.35483751</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -7360,11 +6856,8 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7387,10 +6880,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>22.01690942746397</v>
       </c>
       <c r="I25">
-        <v>21.38383521</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -7401,11 +6894,8 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7428,10 +6918,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>20.82800385633239</v>
       </c>
       <c r="I26">
-        <v>21.00300216</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -7442,11 +6932,8 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7469,10 +6956,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>20.07608597695992</v>
       </c>
       <c r="I27">
-        <v>20.294314</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -7483,11 +6970,8 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7510,10 +6994,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>19.98706448547459</v>
       </c>
       <c r="I28">
-        <v>20.34690468</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -7524,11 +7008,8 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7551,10 +7032,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>20.87541220919696</v>
       </c>
       <c r="I29">
-        <v>20.82614358</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -7565,11 +7046,8 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7592,10 +7070,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>20.6224830418432</v>
       </c>
       <c r="I30">
-        <v>21.08724566</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -7606,11 +7084,8 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7633,10 +7108,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>21.108416235472</v>
       </c>
       <c r="I31">
-        <v>20.85751844</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -7647,11 +7122,8 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7674,10 +7146,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>20.57282084811069</v>
       </c>
       <c r="I32">
-        <v>20.61256107</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -7688,11 +7160,8 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7715,10 +7184,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>21.12939642849024</v>
       </c>
       <c r="I33">
-        <v>20.90627146</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -7729,11 +7198,8 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7756,10 +7222,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>20.90259111461401</v>
       </c>
       <c r="I34">
-        <v>21.28137943</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -7770,11 +7236,8 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7797,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>19.72665922731726</v>
       </c>
       <c r="I35">
-        <v>19.16038157</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -7811,11 +7274,8 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7838,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>20.96209069711827</v>
       </c>
       <c r="I36">
-        <v>21.71115412</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -7850,9 +7310,6 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
         <v>0</v>
       </c>
     </row>
@@ -7863,13 +7320,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7906,11 +7363,8 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7933,10 +7387,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>40.88633092515801</v>
       </c>
       <c r="I2">
-        <v>40.43347263</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -7947,11 +7401,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7974,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>40.12615482063479</v>
       </c>
       <c r="I3">
-        <v>39.79446773</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -7988,11 +7439,8 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8015,10 +7463,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>39.16431851614673</v>
       </c>
       <c r="I4">
-        <v>39.96517835</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -8029,11 +7477,8 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8056,10 +7501,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>40.49218307110943</v>
       </c>
       <c r="I5">
-        <v>40.5603806</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -8070,11 +7515,8 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8097,10 +7539,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>40.02073353283264</v>
       </c>
       <c r="I6">
-        <v>40.58862224</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -8111,11 +7553,8 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8138,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>40.73400643510493</v>
       </c>
       <c r="I7">
-        <v>40.43036743</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -8152,11 +7591,8 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8179,10 +7615,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>40.74996766056658</v>
       </c>
       <c r="I8">
-        <v>40.43601792</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -8193,11 +7629,8 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8220,10 +7653,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>38.36522782276579</v>
       </c>
       <c r="I9">
-        <v>39.3031182</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -8234,11 +7667,8 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8261,10 +7691,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>43.30366669949674</v>
       </c>
       <c r="I10">
-        <v>42.83928479</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -8275,11 +7705,8 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8302,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>42.7151651797158</v>
       </c>
       <c r="I11">
-        <v>43.1150381</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8316,11 +7743,8 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8343,10 +7767,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>38.7063372744952</v>
       </c>
       <c r="I12">
-        <v>38.37698626</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -8357,11 +7781,8 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8384,10 +7805,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>39.85388055755102</v>
       </c>
       <c r="I13">
-        <v>39.55389041</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -8398,11 +7819,8 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8425,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>40.66737004979295</v>
       </c>
       <c r="I14">
-        <v>40.511912</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -8439,11 +7857,8 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8466,10 +7881,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>38.18537646318258</v>
       </c>
       <c r="I15">
-        <v>38.12372488</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -8480,11 +7895,8 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8507,10 +7919,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>43.04781724452075</v>
       </c>
       <c r="I16">
-        <v>42.9797463</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -8521,11 +7933,8 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8548,10 +7957,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>41.93383803378835</v>
       </c>
       <c r="I17">
-        <v>42.55998677</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -8562,11 +7971,8 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8589,10 +7995,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>40.86938956871565</v>
       </c>
       <c r="I18">
-        <v>40.52455716</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -8603,11 +8009,8 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8630,10 +8033,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>41.02916937109417</v>
       </c>
       <c r="I19">
-        <v>42.3218079</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -8644,11 +8047,8 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8671,10 +8071,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>40.36436961938531</v>
       </c>
       <c r="I20">
-        <v>40.56937168</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -8685,11 +8085,8 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8712,10 +8109,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>41.37434643447894</v>
       </c>
       <c r="I21">
-        <v>42.63778299</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -8726,11 +8123,8 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8753,10 +8147,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>44.0923483898829</v>
       </c>
       <c r="I22">
-        <v>42.08814339</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -8767,11 +8161,8 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8794,10 +8185,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>39.04595693917936</v>
       </c>
       <c r="I23">
-        <v>38.69146581</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -8808,11 +8199,8 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8835,10 +8223,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>39.88889856408081</v>
       </c>
       <c r="I24">
-        <v>40.6132402</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -8849,11 +8237,8 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8876,10 +8261,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>43.92950967270192</v>
       </c>
       <c r="I25">
-        <v>42.66636055</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -8890,11 +8275,8 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8917,10 +8299,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>41.55733119056652</v>
       </c>
       <c r="I26">
-        <v>41.9064987</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -8931,11 +8313,8 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8958,10 +8337,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>40.05705778190332</v>
       </c>
       <c r="I27">
-        <v>40.49247993</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -8972,11 +8351,8 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8999,10 +8375,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>39.87943655472032</v>
       </c>
       <c r="I28">
-        <v>40.59741214</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -9013,11 +8389,8 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9040,10 +8413,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>41.65192329045195</v>
       </c>
       <c r="I29">
-        <v>41.55361945</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -9054,11 +8427,8 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9081,10 +8451,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>41.14726325447452</v>
       </c>
       <c r="I30">
-        <v>42.07458659</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -9095,11 +8465,8 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9122,10 +8489,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>42.11682744331454</v>
       </c>
       <c r="I31">
-        <v>41.61622054</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -9136,11 +8503,8 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9163,10 +8527,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>41.04817415084137</v>
       </c>
       <c r="I32">
-        <v>41.12746632</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -9177,11 +8541,8 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9204,10 +8565,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>42.15868843180461</v>
       </c>
       <c r="I33">
-        <v>41.7134956</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -9218,11 +8579,8 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9245,10 +8603,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>41.70615233619269</v>
       </c>
       <c r="I34">
-        <v>42.46193439</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -9259,11 +8617,8 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9286,10 +8641,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>39.35985975649925</v>
       </c>
       <c r="I35">
-        <v>38.22998729</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -9300,11 +8655,8 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9327,10 +8679,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>41.82486961091982</v>
       </c>
       <c r="I36">
-        <v>43.31944764</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -9339,9 +8691,6 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
         <v>0</v>
       </c>
     </row>
@@ -9352,13 +8701,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9395,11 +8744,8 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9422,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>57.75347749365606</v>
       </c>
       <c r="I2">
-        <v>57.11379815</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -9436,11 +8782,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9463,10 +8806,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>56.67970020549195</v>
       </c>
       <c r="I3">
-        <v>56.21117973</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -9477,11 +8820,8 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9504,10 +8844,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>55.32107031362136</v>
       </c>
       <c r="I4">
-        <v>56.45231489</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -9518,11 +8858,8 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9545,10 +8882,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>57.19672885167997</v>
       </c>
       <c r="I5">
-        <v>57.29306042</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -9559,11 +8896,8 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9586,10 +8920,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>56.53078867846894</v>
       </c>
       <c r="I6">
-        <v>57.3329528</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -9600,11 +8934,8 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9627,10 +8958,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>57.53831343249057</v>
       </c>
       <c r="I7">
-        <v>57.10941194</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -9641,11 +8972,8 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9668,10 +8996,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>57.56085926271334</v>
       </c>
       <c r="I8">
-        <v>57.11739347</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -9682,11 +9010,8 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9709,10 +9034,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>54.19232470766215</v>
       </c>
       <c r="I9">
-        <v>55.51713007</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -9723,11 +9048,8 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9750,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>61.16805503286924</v>
       </c>
       <c r="I10">
-        <v>60.51209815</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -9764,11 +9086,8 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9791,10 +9110,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>60.33677454111111</v>
       </c>
       <c r="I11">
-        <v>60.90161006</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -9805,11 +9124,8 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9832,10 +9148,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>54.67415461505563</v>
       </c>
       <c r="I12">
-        <v>54.20893394</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -9846,11 +9162,8 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9873,10 +9186,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>56.29510258645163</v>
       </c>
       <c r="I13">
-        <v>55.87135524</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -9887,11 +9200,8 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9914,10 +9224,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>57.44418703639946</v>
       </c>
       <c r="I14">
-        <v>57.2245967</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -9928,11 +9238,8 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9955,10 +9262,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>53.93827790979942</v>
       </c>
       <c r="I15">
-        <v>53.85119273</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -9969,11 +9276,8 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9996,10 +9300,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>60.80665807194439</v>
       </c>
       <c r="I16">
-        <v>60.71050531</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -10010,11 +9314,8 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10037,10 +9338,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>59.23312061285565</v>
       </c>
       <c r="I17">
-        <v>60.11757921</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -10051,11 +9352,8 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10078,10 +9376,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>57.7295471916244</v>
       </c>
       <c r="I18">
-        <v>57.24245846</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -10092,11 +9390,8 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10119,10 +9414,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>57.95524216135647</v>
       </c>
       <c r="I19">
-        <v>59.78114262</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -10133,11 +9428,8 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10160,10 +9452,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>57.01618755241181</v>
       </c>
       <c r="I20">
-        <v>57.30576065</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -10174,11 +9466,8 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10201,10 +9490,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>58.44281772293009</v>
       </c>
       <c r="I21">
-        <v>60.22746929</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -10215,11 +9504,8 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10242,10 +9528,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>62.28209753129623</v>
       </c>
       <c r="I22">
-        <v>59.45108273</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -10256,11 +9542,8 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10283,10 +9566,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>55.1538801423142</v>
       </c>
       <c r="I23">
-        <v>54.65314811</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -10297,11 +9580,8 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10324,10 +9604,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>56.34456683541281</v>
       </c>
       <c r="I24">
-        <v>57.36772659</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -10338,11 +9618,8 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10365,10 +9642,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>62.05208172955989</v>
       </c>
       <c r="I25">
-        <v>60.26783617</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -10379,11 +9656,8 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10406,10 +9680,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>58.70129056099741</v>
       </c>
       <c r="I26">
-        <v>59.19450278</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -10420,11 +9694,8 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10447,10 +9718,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>56.5820980440615</v>
       </c>
       <c r="I27">
-        <v>57.19714818</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -10461,11 +9732,8 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10488,10 +9756,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>56.33120139194353</v>
       </c>
       <c r="I28">
-        <v>57.34536886</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -10502,11 +9770,8 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10529,10 +9794,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>58.83490545351029</v>
       </c>
       <c r="I29">
-        <v>58.69604759</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -10543,11 +9808,8 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10570,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>58.12205420542151</v>
       </c>
       <c r="I30">
-        <v>59.43193323</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -10584,11 +9846,8 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10611,10 +9870,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>59.49160002407974</v>
       </c>
       <c r="I31">
-        <v>58.78447397</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -10625,11 +9884,8 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10652,10 +9908,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>57.98208712627667</v>
       </c>
       <c r="I32">
-        <v>58.0940903</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -10666,11 +9922,8 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10693,10 +9946,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>59.55073024197699</v>
       </c>
       <c r="I33">
-        <v>58.92187865</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -10707,11 +9960,8 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10734,10 +9984,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>58.91150601662815</v>
       </c>
       <c r="I34">
-        <v>59.97907655</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -10748,11 +9998,8 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10775,10 +10022,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>55.59727965714139</v>
       </c>
       <c r="I35">
-        <v>54.00129237</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -10789,11 +10036,8 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10816,10 +10060,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>59.07919862437553</v>
       </c>
       <c r="I36">
-        <v>61.1903462</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -10828,9 +10072,6 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
         <v>0</v>
       </c>
     </row>
@@ -10841,13 +10082,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10884,11 +10125,8 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10911,10 +10149,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>81.57895529231446</v>
       </c>
       <c r="I2">
-        <v>80.6753842</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -10925,11 +10163,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10952,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>80.06220455821943</v>
       </c>
       <c r="I3">
-        <v>79.4004018</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -10966,11 +10201,8 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10993,10 +10225,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>78.14308882670548</v>
       </c>
       <c r="I4">
-        <v>79.74101426999999</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -11007,11 +10239,8 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11034,10 +10263,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>80.79252693260548</v>
       </c>
       <c r="I5">
-        <v>80.92859889</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -11048,11 +10277,8 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11075,10 +10301,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>79.85186143547233</v>
       </c>
       <c r="I6">
-        <v>80.98494838000001</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -11089,11 +10315,8 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11116,10 +10339,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>81.27502797766469</v>
       </c>
       <c r="I7">
-        <v>80.66918852000001</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -11130,11 +10353,8 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11157,10 +10377,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>81.30687480932905</v>
       </c>
       <c r="I8">
-        <v>80.68046273</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -11171,11 +10391,8 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11198,10 +10415,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>76.54869327996013</v>
       </c>
       <c r="I9">
-        <v>78.4200306</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -11212,11 +10429,8 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11239,10 +10453,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>86.40217426547865</v>
       </c>
       <c r="I10">
-        <v>85.47561054000001</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -11253,11 +10467,8 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11280,10 +10491,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>85.22795936075782</v>
       </c>
       <c r="I11">
-        <v>86.02581073</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -11294,11 +10505,8 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11321,10 +10529,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>77.22929611427553</v>
       </c>
       <c r="I12">
-        <v>76.57215444000001</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -11335,11 +10543,8 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11362,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>79.51894598175247</v>
       </c>
       <c r="I13">
-        <v>78.92038694</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -11376,11 +10581,8 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11403,10 +10605,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>81.14207090924597</v>
       </c>
       <c r="I14">
-        <v>80.83189132</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -11417,11 +10619,8 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11444,10 +10643,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>76.18984263988784</v>
       </c>
       <c r="I15">
-        <v>76.06683156</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -11458,11 +10657,8 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11485,10 +10681,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>85.89168748965974</v>
       </c>
       <c r="I16">
-        <v>85.75586810999999</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -11499,11 +10695,8 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11526,10 +10719,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>83.6690067508266</v>
       </c>
       <c r="I17">
-        <v>84.91833773</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -11540,11 +10733,8 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11567,10 +10757,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>81.54515284224057</v>
       </c>
       <c r="I18">
-        <v>80.85712173</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -11581,11 +10771,8 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11608,10 +10795,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>81.86395546061961</v>
       </c>
       <c r="I19">
-        <v>84.44310840999999</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -11622,11 +10809,8 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11649,10 +10833,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>80.53750556903425</v>
       </c>
       <c r="I20">
-        <v>80.94653845000001</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -11663,11 +10847,8 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11690,10 +10871,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>82.55267424718288</v>
       </c>
       <c r="I21">
-        <v>85.07356160000001</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -11704,11 +10885,8 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11731,10 +10909,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>87.97580112081211</v>
       </c>
       <c r="I22">
-        <v>83.97688642</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -11745,11 +10923,8 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11772,10 +10947,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>77.90692643264221</v>
       </c>
       <c r="I23">
-        <v>77.19962364</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -11786,11 +10961,8 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11813,10 +10985,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>79.58881609052671</v>
       </c>
       <c r="I24">
-        <v>81.03406766000001</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -11827,11 +10999,8 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11854,10 +11023,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>87.65089516500302</v>
       </c>
       <c r="I25">
-        <v>85.13058132</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -11868,11 +11037,8 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11895,10 +11061,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>82.91777683521818</v>
       </c>
       <c r="I26">
-        <v>83.61445762</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -11909,11 +11075,8 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11936,10 +11099,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>79.92433784076259</v>
       </c>
       <c r="I27">
-        <v>80.79311925</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -11950,11 +11113,8 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11977,10 +11137,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>79.56993689982582</v>
       </c>
       <c r="I28">
-        <v>81.00248652000001</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -11991,11 +11151,8 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12018,10 +11175,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>83.10651288741334</v>
       </c>
       <c r="I29">
-        <v>82.91037095</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -12032,11 +11189,8 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12059,10 +11213,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>82.09958373575674</v>
       </c>
       <c r="I30">
-        <v>83.94983703</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -12073,11 +11227,8 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12100,10 +11251,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>84.03411862369262</v>
       </c>
       <c r="I31">
-        <v>83.03527653</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -12114,11 +11265,8 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12141,10 +11289,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>81.90187498145349</v>
       </c>
       <c r="I32">
-        <v>82.06008367</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -12155,11 +11303,8 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12182,10 +11327,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>84.11764227649419</v>
       </c>
       <c r="I33">
-        <v>83.2293658</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -12196,11 +11341,8 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12223,10 +11365,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>83.21471405875657</v>
       </c>
       <c r="I34">
-        <v>84.72269751</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -12237,11 +11379,8 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12264,10 +11403,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>78.53324489460313</v>
       </c>
       <c r="I35">
-        <v>76.27885293</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -12278,11 +11417,8 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12305,10 +11441,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>83.45158616315544</v>
       </c>
       <c r="I36">
-        <v>86.43366138</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -12317,9 +11453,6 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
         <v>0</v>
       </c>
     </row>
@@ -12330,13 +11463,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12373,11 +11506,8 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12400,10 +11530,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>103.154</v>
       </c>
       <c r="I2">
-        <v>101.5642913</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -12414,11 +11544,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12441,10 +11568,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>105.446</v>
       </c>
       <c r="I3">
-        <v>99.95918353</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -12455,11 +11582,8 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12482,10 +11606,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>103.842</v>
       </c>
       <c r="I4">
-        <v>100.3879892</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -12496,11 +11620,8 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12523,10 +11644,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>108.503</v>
       </c>
       <c r="I5">
-        <v>101.8830697</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -12537,11 +11658,8 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12564,10 +11682,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>105.446</v>
       </c>
       <c r="I6">
-        <v>101.9540095</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -12578,11 +11696,8 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12605,10 +11720,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>105.446</v>
       </c>
       <c r="I7">
-        <v>101.5564914</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -12619,11 +11734,8 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12646,10 +11758,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>106.975</v>
       </c>
       <c r="I8">
-        <v>101.5706848</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -12660,11 +11772,8 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12687,10 +11796,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>102.39</v>
       </c>
       <c r="I9">
-        <v>98.72496931000001</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -12701,11 +11810,8 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12728,10 +11834,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>114.616</v>
       </c>
       <c r="I10">
-        <v>107.6074182</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -12742,11 +11848,8 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12769,10 +11872,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>113.087</v>
       </c>
       <c r="I11">
-        <v>108.3000792</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -12783,11 +11886,8 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12810,10 +11910,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>101.626</v>
       </c>
       <c r="I12">
-        <v>96.39863106</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -12824,11 +11924,8 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12851,10 +11948,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>103.918</v>
       </c>
       <c r="I13">
-        <v>99.35488063</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -12865,11 +11962,8 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12892,10 +11986,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>106.975</v>
       </c>
       <c r="I14">
-        <v>101.7613221</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -12906,11 +12000,8 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12933,10 +12024,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>101.626</v>
       </c>
       <c r="I15">
-        <v>95.76246724000001</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -12947,11 +12038,8 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12974,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>114.616</v>
       </c>
       <c r="I16">
-        <v>107.9602416</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -12988,11 +12076,8 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13015,10 +12100,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>110.031</v>
       </c>
       <c r="I17">
-        <v>106.9058533</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -13029,11 +12114,8 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13056,10 +12138,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>106.975</v>
       </c>
       <c r="I18">
-        <v>101.7930853</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -13070,11 +12152,8 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13097,10 +12176,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>110.031</v>
       </c>
       <c r="I19">
-        <v>106.307575</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -13111,11 +12190,8 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13138,10 +12214,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>104.682</v>
       </c>
       <c r="I20">
-        <v>101.9056542</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -13152,11 +12228,8 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13179,10 +12252,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>106.975</v>
       </c>
       <c r="I21">
-        <v>107.1012686</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -13193,11 +12266,8 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13220,10 +12290,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>113.087</v>
       </c>
       <c r="I22">
-        <v>105.7206363</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -13234,11 +12304,8 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13261,10 +12328,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>102.39</v>
       </c>
       <c r="I23">
-        <v>97.18856798</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -13275,11 +12342,8 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13302,10 +12366,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>105.446</v>
       </c>
       <c r="I24">
-        <v>102.015847</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -13316,11 +12380,8 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13343,10 +12404,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>112.323</v>
       </c>
       <c r="I25">
-        <v>107.1730521</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -13357,11 +12418,8 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13384,10 +12442,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>108.503</v>
       </c>
       <c r="I26">
-        <v>105.2643655</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -13398,11 +12456,8 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13425,10 +12480,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>105.446</v>
       </c>
       <c r="I27">
-        <v>101.7125109</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -13439,11 +12494,8 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13466,10 +12518,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>106.211</v>
       </c>
       <c r="I28">
-        <v>101.9760887</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -13480,11 +12532,8 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
@@ -13507,10 +12556,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>110.031</v>
       </c>
       <c r="I29">
-        <v>104.3779729</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -13521,11 +12570,8 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
@@ -13548,10 +12594,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>108.503</v>
       </c>
       <c r="I30">
-        <v>105.6865832</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -13562,11 +12608,8 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13589,10 +12632,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>108.503</v>
       </c>
       <c r="I31">
-        <v>104.5352197</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -13603,11 +12646,8 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13630,10 +12670,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>108.503</v>
       </c>
       <c r="I32">
-        <v>103.3075246</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -13644,11 +12684,8 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13671,10 +12708,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>106.975</v>
       </c>
       <c r="I33">
-        <v>104.7795636</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -13685,11 +12722,8 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
@@ -13712,10 +12746,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>111.559</v>
       </c>
       <c r="I34">
-        <v>106.6595569</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -13726,11 +12760,8 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13753,10 +12784,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>102.39</v>
       </c>
       <c r="I35">
-        <v>96.02938634</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -13767,11 +12798,8 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
@@ -13794,10 +12822,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>110.031</v>
       </c>
       <c r="I36">
-        <v>108.8135327</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -13806,9 +12834,6 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
         <v>0</v>
       </c>
     </row>
